--- a/approaches/our_data/our_ground_truth/GitLab Project API/request_response_constraints.xlsx
+++ b/approaches/our_data/our_ground_truth/GitLab Project API/request_response_constraints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThacSi\API-Testing\Eval\our_data\our_ground_truth\GitLab Project API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F2EDE3-E86B-48EC-A0A6-BB9427FB6823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBAE47-A0E8-4A24-9C85-E8E8F2D7F5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
